--- a/xlsx/核桃市_intext.xlsx
+++ b/xlsx/核桃市_intext.xlsx
@@ -53,19 +53,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B0%E7%81%A3</t>
   </si>
   <si>
-    <t>台灣</t>
+    <t>台湾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%A4%A7%E9%99%B8</t>
   </si>
   <si>
-    <t>中國大陸</t>
+    <t>中国大陆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E4%BA%BA%E5%8F%A3%E8%B0%83%E6%9F%A5%E5%B1%80</t>
